--- a/sczy_all.xlsx
+++ b/sczy_all.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3639,6 +3639,1810 @@
         <v>45776</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ewgferg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>uygbuyhgb</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>uhgbgouyhgb</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>jhvbljhvb</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>hbjlhvbv</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hjbljhvb </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>hjuvbljhv</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>jhvblljh</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>vhujbuyh</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>vhjvbluiv</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>hjvljhvb</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>hvbljhvbu</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>vbjhvbpuyh</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>vvljlvbuv</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>ljhvlb</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>АО "Колесики"</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20025</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.0.480.0</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1 ТОМ</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20026</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20027</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20028</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20029</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20030</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20031</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20032</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20033</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20034</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20035</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20036</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.0.0.82</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4 ТОМ</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20037</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.0.495.0</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4 ТОМ</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20038</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.0.480.0</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20039</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.0.452.0</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>ВВПП "ОКА"</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20040</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.0.451.0</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ВВПП "ОКА"</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20041</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>АО "Колесики"</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20025</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.0.480.0</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1 ТОМ</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20026</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20027</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20028</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Мишки Гамми</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20029</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20030</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20031</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20032</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20033</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20034</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20035</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Синий Трактор</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.7 КС2 исп. 2</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>5 ТОМ</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ООО "Рога и Копыта"</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20036</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.0.0.82</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4 ТОМ</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20037</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.0.495.0</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>4 ТОМ</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20038</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.0.480.0</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>ДИТ ООО ЫЫ</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20039</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.0.452.0</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>ВВПП "ОКА"</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20040</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ПРДР ПРА</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.0.451.0</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Рег. №: 0000000000000Заводской №: 00000000000</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2 ТОМ</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>ВВПП "ОКА"</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Получено на основании Доверенности №000000008 от 22.04.20041</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ujhpiuh</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>uhipuhnp</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>hiuhnipuhn</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>iuniunp</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>uihnpiuhn</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>iunipun</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>ijnipujn</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>uinpiun</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>iuniuni</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>huniu</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>ijnipni</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>ijniujni</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>jnuiniubjn</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>jnujbn</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>jbiubniu34</t>
+        </is>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>45784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
